--- a/MVandebroek/TAKEN/ATSTAT-TASKS/TASK2/3.QUERIES/students with no group assigned.xlsx
+++ b/MVandebroek/TAKEN/ATSTAT-TASKS/TASK2/3.QUERIES/students with no group assigned.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Last.Name</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t xml:space="preserve">Feedback.Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariën_PreviewUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q0237463_previewuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-19 13:18:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
 </sst>
 </file>
@@ -411,6 +429,39 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
